--- a/plantillasSap/15122022/1539-15122022.xlsx
+++ b/plantillasSap/15122022/1539-15122022.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNION" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UNION" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UNION'!$A$16:$E$64</definedName>
@@ -722,10 +722,10 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="n">
-        <v>873678.26</v>
+        <v>910068.92</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>910068.92</v>
+        <v>904652.92</v>
       </c>
       <c r="C9" s="18" t="n"/>
       <c r="D9" s="20" t="n"/>
@@ -839,82 +839,145 @@
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31609104</v>
+        <v>3046582496</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DEP DE MIGUEL ANGEL VERA RAMOS</t>
+          <t>N/D PAGOS DE AGETIC DEBITO DE CUENTA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Z001</t>
+          <t>Z002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5011.3</v>
+        <v>-1385</v>
       </c>
       <c r="F17" s="14" t="n"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31614154</v>
+        <v>3046582627</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DEP DE SONYA MERCEDES MAMANI HUALLPARA</t>
+          <t>N/D PAGOS DE AGETIC DEBITO DE CUENTA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Z001</t>
+          <t>Z002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23900</v>
+        <v>-1154</v>
       </c>
       <c r="F18" s="14" t="n"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31677058</v>
+        <v>3046582788</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DEP DE JUAN CALSINA</t>
+          <t>N/D PAGOS DE AGETIC DEBITO DE CUENTA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Z001</t>
+          <t>Z002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7479.36</v>
+        <v>-1385</v>
       </c>
       <c r="F19" s="14" t="n"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3046583229</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/D PAGOS DE AGETIC DEBITO DE CUENTA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-162</v>
+      </c>
       <c r="F20" s="14" t="n"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3046583345</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/D PAGOS DE AGETIC DEBITO DE CUENTA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>-243</v>
+      </c>
       <c r="F21" s="14" t="n"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3047169809</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/D PAGOS DE AGETIC DEBITO DE CUENTA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-1087</v>
+      </c>
       <c r="F22" s="14" t="n"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
